--- a/examples/amazon-us/data.xlsx
+++ b/examples/amazon-us/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,55 +90,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是分单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个分单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的下单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的交易单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的信用卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的发货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分单2的品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个分单号的第二个物名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是分单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二个分单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的下单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的交易单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的收件人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的信用卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的发货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分单2的品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个分单号的第二个物名</t>
+    <t>信用卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万事达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -505,7 +517,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -540,18 +552,21 @@
         <v>17</v>
       </c>
       <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -580,13 +595,16 @@
       <c r="J2">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
       <c r="I3">
         <v>54.06</v>
@@ -595,36 +613,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
       <c r="I4">
         <v>22.34</v>
       </c>
       <c r="J4">
         <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/examples/amazon-us/data.xlsx
+++ b/examples/amazon-us/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是下单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yy2.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是发货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分单2的下单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分单2的交易单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分单2的发货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分单2的品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +135,14 @@
   </si>
   <si>
     <t>Visa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若不是日期格式则保持不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若不是日期格式则保持不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,45 +542,45 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42009.751388888886</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42009.751388888886</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
       <c r="I2">
         <v>21.45</v>
@@ -596,15 +589,15 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>54.06</v>
@@ -615,28 +608,28 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
       <c r="I4">
         <v>22.34</v>
@@ -645,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/examples/amazon-us/data.xlsx
+++ b/examples/amazon-us/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>若不是日期格式则保持不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +522,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -556,8 +568,11 @@
       <c r="O1" t="s">
         <v>27</v>
       </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="O2" t="s">
         <v>28</v>
       </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>24</v>
       </c>
@@ -606,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -639,6 +657,9 @@
       </c>
       <c r="O4" t="s">
         <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/examples/amazon-us/data.xlsx
+++ b/examples/amazon-us/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,9 +653,6 @@
       </c>
       <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/examples/amazon-us/data.xlsx
+++ b/examples/amazon-us/data.xlsx
@@ -150,7 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语</t>
+    <t>日语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
